--- a/biology/Médecine/Unité_de_coordination_en_oncogériatrie/Unité_de_coordination_en_oncogériatrie.xlsx
+++ b/biology/Médecine/Unité_de_coordination_en_oncogériatrie/Unité_de_coordination_en_oncogériatrie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Unit%C3%A9_de_coordination_en_oncog%C3%A9riatrie</t>
+          <t>Unité_de_coordination_en_oncogériatrie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Les UCOG sont des unités de coordination en oncogériatrie qui ont été créées pour améliorer la prise en charge des patients âgés atteints de cancer.
 Ces unités sont financées par l'Institut national du cancer (INCa).
